--- a/04 - MID/01 - Create/03 - Set/Data.xlsx
+++ b/04 - MID/01 - Create/03 - Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mao8ct\Desktop\PyAutomateSAP\04 - MID\01 - Create\03 - Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A95B78-1366-48AC-9022-64CE0B68BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15122B5-298D-4357-90F2-BEDA990FA9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -468,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19311F73-6FF4-465B-BEC0-87D260BE4486}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -513,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
